--- a/xls/locales.xlsx
+++ b/xls/locales.xlsx
@@ -650,15 +650,15 @@
   </sheetPr>
   <dimension ref="A1:K62"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="44.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="44.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="41.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="17.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="12.27"/>
@@ -1021,7 +1021,7 @@
         <v>48</v>
       </c>
       <c r="H13" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1048,7 +1048,7 @@
         <v>51</v>
       </c>
       <c r="H14" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1075,7 +1075,7 @@
         <v>54</v>
       </c>
       <c r="H15" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1102,7 +1102,7 @@
         <v>56</v>
       </c>
       <c r="H16" s="0" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1129,7 +1129,7 @@
         <v>59</v>
       </c>
       <c r="H17" s="0" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1156,7 +1156,7 @@
         <v>63</v>
       </c>
       <c r="H18" s="0" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1183,7 +1183,7 @@
         <v>66</v>
       </c>
       <c r="H19" s="0" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1210,7 +1210,7 @@
         <v>70</v>
       </c>
       <c r="H20" s="0" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1237,7 +1237,7 @@
         <v>73</v>
       </c>
       <c r="H21" s="0" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1264,7 +1264,7 @@
         <v>75</v>
       </c>
       <c r="H22" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1291,7 +1291,7 @@
         <v>79</v>
       </c>
       <c r="H23" s="0" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1318,7 +1318,7 @@
         <v>82</v>
       </c>
       <c r="H24" s="0" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1345,7 +1345,7 @@
         <v>85</v>
       </c>
       <c r="H25" s="0" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1372,7 +1372,7 @@
         <v>88</v>
       </c>
       <c r="H26" s="0" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1399,7 +1399,7 @@
         <v>92</v>
       </c>
       <c r="H27" s="0" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1426,7 +1426,7 @@
         <v>95</v>
       </c>
       <c r="H28" s="0" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1453,7 +1453,7 @@
         <v>97</v>
       </c>
       <c r="H29" s="0" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1480,7 +1480,7 @@
         <v>99</v>
       </c>
       <c r="H30" s="0" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1507,7 +1507,7 @@
         <v>101</v>
       </c>
       <c r="H31" s="0" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1534,7 +1534,7 @@
         <v>103</v>
       </c>
       <c r="H32" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1561,7 +1561,7 @@
         <v>79</v>
       </c>
       <c r="H33" s="0" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1588,7 +1588,7 @@
         <v>108</v>
       </c>
       <c r="H34" s="0" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1615,7 +1615,7 @@
         <v>88</v>
       </c>
       <c r="H35" s="0" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1642,7 +1642,7 @@
         <v>114</v>
       </c>
       <c r="H36" s="0" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1669,7 +1669,7 @@
         <v>116</v>
       </c>
       <c r="H37" s="0" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1696,7 +1696,7 @@
         <v>119</v>
       </c>
       <c r="H38" s="0" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1723,7 +1723,7 @@
         <v>122</v>
       </c>
       <c r="H39" s="0" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1750,7 +1750,7 @@
         <v>125</v>
       </c>
       <c r="H40" s="0" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1777,7 +1777,7 @@
         <v>125</v>
       </c>
       <c r="H41" s="0" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1804,7 +1804,7 @@
         <v>128</v>
       </c>
       <c r="H42" s="0" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1831,7 +1831,7 @@
         <v>131</v>
       </c>
       <c r="H43" s="0" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1858,7 +1858,7 @@
         <v>79</v>
       </c>
       <c r="H44" s="0" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1885,7 +1885,7 @@
         <v>134</v>
       </c>
       <c r="H45" s="0" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1912,7 +1912,7 @@
         <v>88</v>
       </c>
       <c r="H46" s="0" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1939,7 +1939,7 @@
         <v>137</v>
       </c>
       <c r="H47" s="0" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1966,7 +1966,7 @@
         <v>140</v>
       </c>
       <c r="H48" s="0" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1993,7 +1993,7 @@
         <v>143</v>
       </c>
       <c r="H49" s="0" t="n">
-        <v>37</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2020,7 +2020,7 @@
         <v>146</v>
       </c>
       <c r="H50" s="0" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2047,7 +2047,7 @@
         <v>149</v>
       </c>
       <c r="H51" s="0" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2074,7 +2074,7 @@
         <v>152</v>
       </c>
       <c r="H52" s="0" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2101,7 +2101,7 @@
         <v>79</v>
       </c>
       <c r="H53" s="0" t="n">
-        <v>41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2128,7 +2128,7 @@
         <v>82</v>
       </c>
       <c r="H54" s="0" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2155,7 +2155,7 @@
         <v>108</v>
       </c>
       <c r="H55" s="0" t="n">
-        <v>43</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2182,7 +2182,7 @@
         <v>88</v>
       </c>
       <c r="H56" s="0" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2209,7 +2209,7 @@
         <v>159</v>
       </c>
       <c r="H57" s="0" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2236,7 +2236,7 @@
         <v>161</v>
       </c>
       <c r="H58" s="0" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2263,7 +2263,7 @@
         <v>165</v>
       </c>
       <c r="H59" s="0" t="n">
-        <v>47</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2290,7 +2290,7 @@
         <v>95</v>
       </c>
       <c r="H60" s="0" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2317,7 +2317,7 @@
         <v>169</v>
       </c>
       <c r="H61" s="0" t="n">
-        <v>49</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2344,7 +2344,7 @@
         <v>79</v>
       </c>
       <c r="H62" s="0" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/xls/locales.xlsx
+++ b/xls/locales.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="172">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -172,7 +172,7 @@
     <t xml:space="preserve">LA-6</t>
   </si>
   <si>
-    <t xml:space="preserve">BADI NET SERVICE C.A</t>
+    <t xml:space="preserve">KELLY BLANCO</t>
   </si>
   <si>
     <t xml:space="preserve">1.87</t>
@@ -208,9 +208,6 @@
     <t xml:space="preserve">DEP-AS-1</t>
   </si>
   <si>
-    <t xml:space="preserve">ARGIMIRO FERNANDEZ TATO (SRT CONSULTORES)</t>
-  </si>
-  <si>
     <t xml:space="preserve">2.36</t>
   </si>
   <si>
@@ -247,6 +244,9 @@
     <t xml:space="preserve">M-11</t>
   </si>
   <si>
+    <t xml:space="preserve">MANUEL FLORES</t>
+  </si>
+  <si>
     <t xml:space="preserve">1.4</t>
   </si>
   <si>
@@ -361,6 +361,9 @@
     <t xml:space="preserve">DEP-LS1</t>
   </si>
   <si>
+    <t xml:space="preserve">TERESA BELLO</t>
+  </si>
+  <si>
     <t xml:space="preserve">OSCAR PERAZA</t>
   </si>
   <si>
@@ -514,7 +517,10 @@
     <t xml:space="preserve">405/406</t>
   </si>
   <si>
-    <t xml:space="preserve">ELIBETH A. AGUILAR (CARLOS NEGRIN)</t>
+    <t xml:space="preserve">ELIBETH A. AGUILAR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ELIBETH A. AGUILAR</t>
   </si>
   <si>
     <t xml:space="preserve">0.85</t>
@@ -524,9 +530,6 @@
   </si>
   <si>
     <t xml:space="preserve">408/409/410</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FRENCESCO DE SARIO/DOMINGO GARCIA</t>
   </si>
   <si>
     <t xml:space="preserve">1.59</t>
@@ -651,7 +654,7 @@
   <dimension ref="A1:K62"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="topLeft" activeCell="F31" activeCellId="0" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1042,7 +1045,7 @@
         <v>50</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="G14" s="0" t="s">
         <v>51</v>
@@ -1147,13 +1150,13 @@
         <v>61</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="F18" s="0" t="s">
         <v>14</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H18" s="0" t="n">
         <v>0</v>
@@ -1171,16 +1174,16 @@
         <v>60</v>
       </c>
       <c r="D19" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="E19" s="0" t="s">
         <v>64</v>
-      </c>
-      <c r="E19" s="0" t="s">
-        <v>65</v>
       </c>
       <c r="F19" s="0" t="s">
         <v>14</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H19" s="0" t="n">
         <v>0</v>
@@ -1195,19 +1198,19 @@
         <v>19</v>
       </c>
       <c r="C20" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="D20" s="0" t="s">
+      <c r="E20" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="E20" s="0" t="s">
+      <c r="F20" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="G20" s="0" t="s">
         <v>69</v>
-      </c>
-      <c r="F20" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="G20" s="0" t="s">
-        <v>70</v>
       </c>
       <c r="H20" s="0" t="n">
         <v>0</v>
@@ -1222,19 +1225,19 @@
         <v>20</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D21" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="E21" s="0" t="s">
         <v>71</v>
-      </c>
-      <c r="E21" s="0" t="s">
-        <v>72</v>
       </c>
       <c r="F21" s="0" t="s">
         <v>14</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H21" s="0" t="n">
         <v>0</v>
@@ -1249,16 +1252,16 @@
         <v>21</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D22" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="E22" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="E22" s="0" t="s">
-        <v>17</v>
-      </c>
       <c r="F22" s="0" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="G22" s="0" t="s">
         <v>75</v>
@@ -1276,7 +1279,7 @@
         <v>22</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D23" s="0" t="s">
         <v>76</v>
@@ -1303,7 +1306,7 @@
         <v>23</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D24" s="0" t="s">
         <v>80</v>
@@ -1330,7 +1333,7 @@
         <v>24</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D25" s="0" t="s">
         <v>83</v>
@@ -1357,7 +1360,7 @@
         <v>25</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D26" s="0" t="s">
         <v>86</v>
@@ -1633,13 +1636,13 @@
         <v>112</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>41</v>
+        <v>113</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H36" s="0" t="n">
         <v>0</v>
@@ -1657,16 +1660,16 @@
         <v>89</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E37" s="0" t="s">
         <v>77</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H37" s="0" t="n">
         <v>0</v>
@@ -1684,16 +1687,16 @@
         <v>89</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H38" s="0" t="n">
         <v>0</v>
@@ -1708,19 +1711,19 @@
         <v>38</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D39" s="0" t="n">
         <v>201</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H39" s="0" t="n">
         <v>0</v>
@@ -1735,19 +1738,19 @@
         <v>39</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D40" s="0" t="n">
         <v>202</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H40" s="0" t="n">
         <v>0</v>
@@ -1762,19 +1765,19 @@
         <v>40</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D41" s="0" t="n">
         <v>203</v>
       </c>
       <c r="E41" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="F41" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="G41" s="0" t="s">
         <v>126</v>
-      </c>
-      <c r="F41" s="0" t="s">
-        <v>126</v>
-      </c>
-      <c r="G41" s="0" t="s">
-        <v>125</v>
       </c>
       <c r="H41" s="0" t="n">
         <v>0</v>
@@ -1789,19 +1792,19 @@
         <v>41</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D42" s="0" t="n">
         <v>204241</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F42" s="0" t="s">
         <v>78</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H42" s="0" t="n">
         <v>0</v>
@@ -1816,19 +1819,19 @@
         <v>42</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H43" s="0" t="n">
         <v>0</v>
@@ -1843,16 +1846,16 @@
         <v>43</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D44" s="0" t="n">
         <v>207</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G44" s="0" t="s">
         <v>79</v>
@@ -1870,19 +1873,19 @@
         <v>44</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D45" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="E45" s="0" t="s">
         <v>133</v>
       </c>
-      <c r="E45" s="0" t="s">
-        <v>132</v>
-      </c>
       <c r="F45" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H45" s="0" t="n">
         <v>0</v>
@@ -1897,16 +1900,16 @@
         <v>45</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D46" s="0" t="n">
         <v>211</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G46" s="0" t="s">
         <v>88</v>
@@ -1924,19 +1927,19 @@
         <v>46</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H47" s="0" t="n">
         <v>0</v>
@@ -1951,19 +1954,19 @@
         <v>47</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H48" s="0" t="n">
         <v>0</v>
@@ -1978,19 +1981,19 @@
         <v>48</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D49" s="0" t="n">
         <v>301</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F49" s="0" t="s">
         <v>78</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H49" s="0" t="n">
         <v>0</v>
@@ -2005,19 +2008,19 @@
         <v>49</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F50" s="0" t="s">
         <v>78</v>
       </c>
       <c r="G50" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H50" s="0" t="n">
         <v>0</v>
@@ -2032,19 +2035,19 @@
         <v>50</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F51" s="0" t="s">
         <v>78</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H51" s="0" t="n">
         <v>0</v>
@@ -2059,19 +2062,19 @@
         <v>51</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H52" s="0" t="n">
         <v>0</v>
@@ -2086,16 +2089,16 @@
         <v>52</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D53" s="0" t="n">
         <v>307</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F53" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G53" s="0" t="s">
         <v>79</v>
@@ -2113,16 +2116,16 @@
         <v>53</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D54" s="0" t="n">
         <v>308</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F54" s="0" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="G54" s="0" t="s">
         <v>82</v>
@@ -2140,16 +2143,16 @@
         <v>54</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G55" s="0" t="s">
         <v>108</v>
@@ -2167,16 +2170,16 @@
         <v>55</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D56" s="0" t="n">
         <v>311</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F56" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G56" s="0" t="s">
         <v>88</v>
@@ -2194,19 +2197,19 @@
         <v>56</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D57" s="0" t="n">
         <v>321</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F57" s="0" t="s">
         <v>78</v>
       </c>
       <c r="G57" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H57" s="0" t="n">
         <v>0</v>
@@ -2221,19 +2224,19 @@
         <v>57</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D58" s="0" t="n">
         <v>331</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F58" s="0" t="s">
         <v>78</v>
       </c>
       <c r="G58" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H58" s="0" t="n">
         <v>0</v>
@@ -2248,19 +2251,19 @@
         <v>58</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F59" s="0" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G59" s="0" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="H59" s="0" t="n">
         <v>0</v>
@@ -2275,16 +2278,16 @@
         <v>59</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D60" s="0" t="n">
         <v>407</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F60" s="0" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G60" s="0" t="s">
         <v>95</v>
@@ -2302,19 +2305,19 @@
         <v>60</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>168</v>
+        <v>140</v>
       </c>
       <c r="F61" s="0" t="s">
         <v>78</v>
       </c>
       <c r="G61" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H61" s="0" t="n">
         <v>0</v>
@@ -2329,16 +2332,16 @@
         <v>61</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D62" s="0" t="n">
         <v>411</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F62" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G62" s="0" t="s">
         <v>79</v>

--- a/xls/locales.xlsx
+++ b/xls/locales.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="292">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -70,6 +70,15 @@
     <t xml:space="preserve">0.64</t>
   </si>
   <si>
+    <t xml:space="preserve">424889.75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jose Rosales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">librerianuevachacao@gmail.com,joserosalesnuevachacao@gmail.com</t>
+  </si>
+  <si>
     <t xml:space="preserve">SB-11/SB-12/SB-13/SB-14</t>
   </si>
   <si>
@@ -79,12 +88,21 @@
     <t xml:space="preserve">4.21</t>
   </si>
   <si>
+    <t xml:space="preserve">Mariam DeOro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fvallejo@centralarm.com</t>
+  </si>
+  <si>
     <t xml:space="preserve">DEP-SS-1</t>
   </si>
   <si>
     <t xml:space="preserve">2.26</t>
   </si>
   <si>
+    <t xml:space="preserve">1500391.92</t>
+  </si>
+  <si>
     <t xml:space="preserve">DEP-SB9</t>
   </si>
   <si>
@@ -94,6 +112,15 @@
     <t xml:space="preserve">0.16</t>
   </si>
   <si>
+    <t xml:space="preserve">81508.76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simon Bello</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bello1099@gmail.com</t>
+  </si>
+  <si>
     <t xml:space="preserve">DEP-SA-18</t>
   </si>
   <si>
@@ -103,6 +130,12 @@
     <t xml:space="preserve">0.12</t>
   </si>
   <si>
+    <t xml:space="preserve">Maria Perez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mariaperez_21@hotmail.es</t>
+  </si>
+  <si>
     <t xml:space="preserve">DEP-SA-20</t>
   </si>
   <si>
@@ -121,6 +154,15 @@
     <t xml:space="preserve">5.96</t>
   </si>
   <si>
+    <t xml:space="preserve">1330903.58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dolores Barrios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dblolita1945@hotmail.com</t>
+  </si>
+  <si>
     <t xml:space="preserve">LA-2</t>
   </si>
   <si>
@@ -130,6 +172,12 @@
     <t xml:space="preserve">2.72</t>
   </si>
   <si>
+    <t xml:space="preserve">Julio Peraza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">juliocperaza45@hotmail.com</t>
+  </si>
+  <si>
     <t xml:space="preserve">LA-3</t>
   </si>
   <si>
@@ -142,24 +190,45 @@
     <t xml:space="preserve">4.36</t>
   </si>
   <si>
+    <t xml:space="preserve">992633.31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alicia Perez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regalosmerali@hotmail.com</t>
+  </si>
+  <si>
     <t xml:space="preserve">LB-4</t>
   </si>
   <si>
-    <t xml:space="preserve">FRUTAS EL ALMENDRON DE CHACAO C.A</t>
-  </si>
-  <si>
     <t xml:space="preserve">MARIA TERESA BELLO</t>
   </si>
   <si>
     <t xml:space="preserve">4.06</t>
   </si>
   <si>
+    <t xml:space="preserve">1350830.52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teresa Bello</t>
+  </si>
+  <si>
+    <t xml:space="preserve">frutaselalmendronenchacao@gmail.com</t>
+  </si>
+  <si>
     <t xml:space="preserve">LA-4</t>
   </si>
   <si>
     <t xml:space="preserve">RAFAEL CORONADO</t>
   </si>
   <si>
+    <t xml:space="preserve">Rafael Coronado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">otrasopciones73@gmail.com,raskael@hotmail.com</t>
+  </si>
+  <si>
     <t xml:space="preserve">LA-5</t>
   </si>
   <si>
@@ -169,6 +238,15 @@
     <t xml:space="preserve">7.96</t>
   </si>
   <si>
+    <t xml:space="preserve">1777515.52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carmen Teresa Morillo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">salonesalfredoalvarado@gmail.com,mechyestilo94@gmail.com</t>
+  </si>
+  <si>
     <t xml:space="preserve">LA-6</t>
   </si>
   <si>
@@ -178,6 +256,15 @@
     <t xml:space="preserve">1.87</t>
   </si>
   <si>
+    <t xml:space="preserve">-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kelly Blanco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kellymer181@hotmail.com</t>
+  </si>
+  <si>
     <t xml:space="preserve">LA-7</t>
   </si>
   <si>
@@ -187,10 +274,22 @@
     <t xml:space="preserve">1.16</t>
   </si>
   <si>
+    <t xml:space="preserve">259980.71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rafael Marquez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">skamarquez@gmail.com</t>
+  </si>
+  <si>
     <t xml:space="preserve">LA-9</t>
   </si>
   <si>
-    <t xml:space="preserve">0.4</t>
+    <t xml:space="preserve">0.40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">91067.28</t>
   </si>
   <si>
     <t xml:space="preserve">LB-8</t>
@@ -199,7 +298,10 @@
     <t xml:space="preserve">PROMOCIONES GONZALEZ C.A</t>
   </si>
   <si>
-    <t xml:space="preserve">6.4</t>
+    <t xml:space="preserve">6.40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3260350.39</t>
   </si>
   <si>
     <t xml:space="preserve">CUERPO SUCRE</t>
@@ -211,6 +313,12 @@
     <t xml:space="preserve">2.36</t>
   </si>
   <si>
+    <t xml:space="preserve">Verónica Dekash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">admgaleriasmiranda@gmail.com</t>
+  </si>
+  <si>
     <t xml:space="preserve">LS-1/LS-2</t>
   </si>
   <si>
@@ -220,6 +328,12 @@
     <t xml:space="preserve">9.35</t>
   </si>
   <si>
+    <t xml:space="preserve">Arlindo Melin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">arlindompolicarp@hotmail.com</t>
+  </si>
+  <si>
     <t xml:space="preserve">PLANTA MEZZANINA</t>
   </si>
   <si>
@@ -232,6 +346,15 @@
     <t xml:space="preserve">3.37</t>
   </si>
   <si>
+    <t xml:space="preserve">752320.98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alejandra Gonzalez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aledaligp@gmail.com,omarpalma17@gmail.com</t>
+  </si>
+  <si>
     <t xml:space="preserve">M6/M7/M8/M9/M10</t>
   </si>
   <si>
@@ -241,13 +364,25 @@
     <t xml:space="preserve">3.38</t>
   </si>
   <si>
+    <t xml:space="preserve">3729699.73</t>
+  </si>
+  <si>
     <t xml:space="preserve">M-11</t>
   </si>
   <si>
     <t xml:space="preserve">MANUEL FLORES</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4</t>
+    <t xml:space="preserve">1.40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">314144.95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manuel Flores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">manolet.1964@gmail.com,taiccs.cdiaz@gmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">M-12</t>
@@ -262,6 +397,15 @@
     <t xml:space="preserve">0.45</t>
   </si>
   <si>
+    <t xml:space="preserve">-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amado Sifontes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sifonts@gmail.com</t>
+  </si>
+  <si>
     <t xml:space="preserve">M-13</t>
   </si>
   <si>
@@ -271,6 +415,12 @@
     <t xml:space="preserve">0.43</t>
   </si>
   <si>
+    <t xml:space="preserve">Adriana Gomez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adrianads2008@gmail.com</t>
+  </si>
+  <si>
     <t xml:space="preserve">M-14</t>
   </si>
   <si>
@@ -289,6 +439,15 @@
     <t xml:space="preserve">0.14</t>
   </si>
   <si>
+    <t xml:space="preserve">2469.58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mariana Fernandez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">marianafernandez1@gmail.com,deiby.pena@scottasesores.com</t>
+  </si>
+  <si>
     <t xml:space="preserve">PLANTA PISO 1</t>
   </si>
   <si>
@@ -301,6 +460,12 @@
     <t xml:space="preserve">1.54</t>
   </si>
   <si>
+    <t xml:space="preserve">Anji Briceno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anjijoselin12@gmail.com,anji.joselin26@gmail.com</t>
+  </si>
+  <si>
     <t xml:space="preserve">M-102</t>
   </si>
   <si>
@@ -310,6 +475,15 @@
     <t xml:space="preserve">0.46</t>
   </si>
   <si>
+    <t xml:space="preserve">-731.27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cecilia Rengifo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cecilia.rengifo.51@gmail.com</t>
+  </si>
+  <si>
     <t xml:space="preserve">M-103</t>
   </si>
   <si>
@@ -328,18 +502,39 @@
     <t xml:space="preserve">0.95</t>
   </si>
   <si>
+    <t xml:space="preserve">316081.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deiby Pena</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deiby.pena@scottasesores.com</t>
+  </si>
+  <si>
     <t xml:space="preserve">M-106/M-107</t>
   </si>
   <si>
     <t xml:space="preserve">0.74</t>
   </si>
   <si>
+    <t xml:space="preserve">246210.49</t>
+  </si>
+  <si>
     <t xml:space="preserve">M-108</t>
   </si>
   <si>
     <t xml:space="preserve">LUIS ROBERTO PERAZA</t>
   </si>
   <si>
+    <t xml:space="preserve">100487.69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luis Roberto Peraza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lrpm56@gmail.com</t>
+  </si>
+  <si>
     <t xml:space="preserve">M-109/M-110</t>
   </si>
   <si>
@@ -349,6 +544,15 @@
     <t xml:space="preserve">0.96</t>
   </si>
   <si>
+    <t xml:space="preserve">691788.81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">David Soria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dsoria11@hotmail.com,inversionestransan156@gmail.com</t>
+  </si>
+  <si>
     <t xml:space="preserve">M-111</t>
   </si>
   <si>
@@ -358,31 +562,43 @@
     <t xml:space="preserve">ALEJANDRO PREPO</t>
   </si>
   <si>
+    <t xml:space="preserve">31659.55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luis  Sanchez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1asesordeviajes@gmail.com,kacikiaretours.ventas@gmail.com</t>
+  </si>
+  <si>
     <t xml:space="preserve">DEP-LS1</t>
   </si>
   <si>
-    <t xml:space="preserve">TERESA BELLO</t>
-  </si>
-  <si>
     <t xml:space="preserve">OSCAR PERAZA</t>
   </si>
   <si>
     <t xml:space="preserve">4.99</t>
   </si>
   <si>
+    <t xml:space="preserve">215833.43</t>
+  </si>
+  <si>
     <t xml:space="preserve">DEP-LS2</t>
   </si>
   <si>
-    <t xml:space="preserve">5.99</t>
-  </si>
-  <si>
     <t xml:space="preserve">DEP-LS3</t>
   </si>
   <si>
     <t xml:space="preserve">JOSE SHIT</t>
   </si>
   <si>
-    <t xml:space="preserve">6.99</t>
+    <t xml:space="preserve">3168750.48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jose Shit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">noviellivito@hotmail.com,anafeng30@yahoo.com</t>
   </si>
   <si>
     <t xml:space="preserve">PLANTA PISO 2</t>
@@ -391,7 +607,13 @@
     <t xml:space="preserve">C.L SOLUTION C.A</t>
   </si>
   <si>
-    <t xml:space="preserve">0.6</t>
+    <t xml:space="preserve">0.60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flor Segovia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">florcoromotosegovia@gmail.com,segoviaperla@gmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">FERNANDO MAZABUEL </t>
@@ -403,15 +625,39 @@
     <t xml:space="preserve">0.34</t>
   </si>
   <si>
+    <t xml:space="preserve">Fernando Mazabuel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fernando.mazabuel@gmail.com,valeria.medinam@gmail.com</t>
+  </si>
+  <si>
     <t xml:space="preserve">DIEGO A. GIL</t>
   </si>
   <si>
+    <t xml:space="preserve">75924.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Virginia Mazzei</t>
+  </si>
+  <si>
+    <t xml:space="preserve">virginia.mazzei@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">204/241</t>
+  </si>
+  <si>
     <t xml:space="preserve">DINORA ACOSTA PANTOJA</t>
   </si>
   <si>
     <t xml:space="preserve">1.45</t>
   </si>
   <si>
+    <t xml:space="preserve">Dinora Acosta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dinosusi@hotmail.com</t>
+  </si>
+  <si>
     <t xml:space="preserve">205/206</t>
   </si>
   <si>
@@ -421,9 +667,21 @@
     <t xml:space="preserve">0.83</t>
   </si>
   <si>
+    <t xml:space="preserve">Joaquin Bulfone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">otrasopciones73@gmail.com</t>
+  </si>
+  <si>
     <t xml:space="preserve">MECINCA C.A</t>
   </si>
   <si>
+    <t xml:space="preserve">Cruz Sanabria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cruzsanabria56@gmail.com,mecinca2.0@gmail.com</t>
+  </si>
+  <si>
     <t xml:space="preserve">208/209/210</t>
   </si>
   <si>
@@ -439,6 +697,15 @@
     <t xml:space="preserve">2.06</t>
   </si>
   <si>
+    <t xml:space="preserve">-1012.88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Robert Moreira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maestre.david@gmail.com,agatarq79@gmail.com</t>
+  </si>
+  <si>
     <t xml:space="preserve">DEP-LS-10</t>
   </si>
   <si>
@@ -448,6 +715,15 @@
     <t xml:space="preserve">3.63</t>
   </si>
   <si>
+    <t xml:space="preserve">181772.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Francesco De Sario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">marianita1002@hotmail.com</t>
+  </si>
+  <si>
     <t xml:space="preserve">PLANTA PISO 3</t>
   </si>
   <si>
@@ -457,6 +733,15 @@
     <t xml:space="preserve">1.27</t>
   </si>
   <si>
+    <t xml:space="preserve">843140.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lianny Pérez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ceaprofint@gmail.com,addabaez1302@yahoo.com</t>
+  </si>
+  <si>
     <t xml:space="preserve">302/303</t>
   </si>
   <si>
@@ -466,6 +751,12 @@
     <t xml:space="preserve">0.66</t>
   </si>
   <si>
+    <t xml:space="preserve">Jacqueline Perez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jacqueline.jpp@gmail.com</t>
+  </si>
+  <si>
     <t xml:space="preserve">304/341</t>
   </si>
   <si>
@@ -475,6 +766,15 @@
     <t xml:space="preserve">1.46</t>
   </si>
   <si>
+    <t xml:space="preserve">-636.86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miriam Ulloa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">miriamulloa@outlook.com</t>
+  </si>
+  <si>
     <t xml:space="preserve">305/306</t>
   </si>
   <si>
@@ -484,9 +784,21 @@
     <t xml:space="preserve">0.84</t>
   </si>
   <si>
+    <t xml:space="preserve">Piero del Giudice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mdgsconstrucciones@hotmail.com</t>
+  </si>
+  <si>
     <t xml:space="preserve">ANGELA MARIA DANIELE CLAUDIA REALI</t>
   </si>
   <si>
+    <t xml:space="preserve">Maria Reali</t>
+  </si>
+  <si>
+    <t xml:space="preserve">serviciostecnicosreampa@hotmail.com</t>
+  </si>
+  <si>
     <t xml:space="preserve">DANIELLE REALI (REAMPA)</t>
   </si>
   <si>
@@ -496,21 +808,48 @@
     <t xml:space="preserve">FERDINANDO DEL GIUDICE</t>
   </si>
   <si>
+    <t xml:space="preserve">Ferdinando del Giudice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">danferconstrucciones@gmail.com</t>
+  </si>
+  <si>
     <t xml:space="preserve">MICHELLE DERNERSISSIAN (DISENOS LOLITACOLITA)</t>
   </si>
   <si>
+    <t xml:space="preserve">31262.84</t>
+  </si>
+  <si>
     <t xml:space="preserve">JULLY CORREIA</t>
   </si>
   <si>
     <t xml:space="preserve">0.71</t>
   </si>
   <si>
+    <t xml:space="preserve">158547.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jully Correia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">solcojsc1978@gmail.com</t>
+  </si>
+  <si>
     <t xml:space="preserve">EDUARDO RIOS</t>
   </si>
   <si>
     <t xml:space="preserve">0.82</t>
   </si>
   <si>
+    <t xml:space="preserve">41061.54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yurismar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">erioscontadores@hotmail.com</t>
+  </si>
+  <si>
     <t xml:space="preserve">PLANTA PISO 4</t>
   </si>
   <si>
@@ -526,26 +865,48 @@
     <t xml:space="preserve">0.85</t>
   </si>
   <si>
+    <t xml:space="preserve">282809.35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liliana Tapias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LILIANA_TAPIAS@hotmail.com</t>
+  </si>
+  <si>
     <t xml:space="preserve">ELOISA GUTIERREZ</t>
   </si>
   <si>
+    <t xml:space="preserve">Eloisa Gutierrez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eloisagutierrez@hotmail.com</t>
+  </si>
+  <si>
     <t xml:space="preserve">408/409/410</t>
   </si>
   <si>
     <t xml:space="preserve">1.59</t>
   </si>
   <si>
+    <t xml:space="preserve">79619.31</t>
+  </si>
+  <si>
     <t xml:space="preserve">DANIEL ESTEVES/FERDINANDO DEL GIUDICE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daniel Esteves</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * \-??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -575,13 +936,41 @@
       <family val="0"/>
       <charset val="1"/>
     </font>
+    <font>
+      <u val="single"/>
+      <sz val="9.9"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF202124"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3C4043"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -600,7 +989,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -619,13 +1008,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -634,15 +1028,108 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Comma" xfId="15" builtinId="3"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
     <cellStyle name="Currency" xfId="17" builtinId="4"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="*unknown*" xfId="20" builtinId="8"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF202124"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF3C4043"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -653,22 +1140,29 @@
   </sheetPr>
   <dimension ref="A1:K62"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F31" activeCellId="0" sqref="F31"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O18" activeCellId="0" sqref="O18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="44.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="41.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="17.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="12.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="15.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="23.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="47.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="46.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="8.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="15.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="21.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="11.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="54.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="8.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="10.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="14" style="0" width="8.56"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,11 +1217,20 @@
       <c r="F2" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="G2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="0" t="n">
-        <v>0</v>
+      <c r="H2" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="4" t="n">
+        <v>2122621221</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -742,19 +1245,25 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F3" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="0" t="n">
-        <v>0</v>
+      <c r="G3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="4" t="n">
+        <v>2122611222</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -769,7 +1278,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>13</v>
@@ -777,11 +1286,20 @@
       <c r="F4" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="0" t="n">
-        <v>0</v>
+      <c r="G4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="4" t="n">
+        <v>2122621221</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -796,19 +1314,28 @@
         <v>11</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F5" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="0" t="n">
-        <v>0</v>
+      <c r="G5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>2122633761</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -823,19 +1350,25 @@
         <v>11</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="F6" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" s="0" t="n">
-        <v>0</v>
+      <c r="G6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="J6" s="5" t="n">
+        <v>4142469049</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -850,19 +1383,25 @@
         <v>11</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="F7" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="H7" s="0" t="n">
-        <v>0</v>
+      <c r="G7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="J7" s="5" t="n">
+        <v>4142469049</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -874,22 +1413,31 @@
         <v>7</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="F8" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="H8" s="0" t="n">
-        <v>0</v>
+      <c r="G8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="J8" s="4" t="n">
+        <v>4143200935</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -901,22 +1449,28 @@
         <v>8</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>34</v>
+        <v>47</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="G9" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="H9" s="0" t="n">
-        <v>0</v>
+        <v>48</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="J9" s="4" t="n">
+        <v>4147303320</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -928,22 +1482,31 @@
         <v>9</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="H10" s="0" t="n">
-        <v>0</v>
+        <v>54</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="I10" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="J10" s="5" t="n">
+        <v>4129805823</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -955,22 +1518,31 @@
         <v>10</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>41</v>
+        <v>59</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>60</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="G11" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="H11" s="0" t="n">
-        <v>0</v>
+        <v>60</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="J11" s="4" t="n">
+        <v>2122654243</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -982,22 +1554,28 @@
         <v>11</v>
       </c>
       <c r="C12" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="F12" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="G12" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="H12" s="0" t="n">
-        <v>0</v>
+      <c r="I12" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="J12" s="4" t="n">
+        <v>2122652270</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1009,22 +1587,31 @@
         <v>12</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="F13" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="H13" s="0" t="n">
-        <v>0</v>
+      <c r="G13" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="I13" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="J13" s="5" t="n">
+        <v>4141345559</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1036,22 +1623,31 @@
         <v>13</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="E14" s="0" t="s">
-        <v>50</v>
+        <v>75</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>76</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="G14" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="H14" s="0" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="I14" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="J14" s="5" t="n">
+        <v>4242050333</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1063,22 +1659,31 @@
         <v>14</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G15" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="H15" s="0" t="n">
-        <v>0</v>
+        <v>82</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="I15" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="J15" s="4" t="n">
+        <v>2122657511</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1090,22 +1695,31 @@
         <v>15</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="G16" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="H16" s="0" t="n">
-        <v>0</v>
+        <v>54</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="I16" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="J16" s="5" t="n">
+        <v>4129805823</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1117,22 +1731,31 @@
         <v>16</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>58</v>
+        <v>91</v>
       </c>
       <c r="F17" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="G17" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="H17" s="0" t="n">
-        <v>0</v>
+      <c r="G17" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H17" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="I17" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="J17" s="4" t="n">
+        <v>2122633761</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1144,22 +1767,28 @@
         <v>17</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="E18" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="E18" s="8" t="s">
         <v>14</v>
       </c>
       <c r="F18" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="G18" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="H18" s="0" t="n">
-        <v>0</v>
+      <c r="G18" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I18" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="J18" s="5" t="n">
+        <v>2122670404</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1171,22 +1800,28 @@
         <v>18</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="F19" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="G19" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="H19" s="0" t="n">
-        <v>0</v>
+      <c r="G19" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="I19" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="J19" s="4" t="n">
+        <v>2122638455</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1198,22 +1833,31 @@
         <v>19</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>66</v>
+        <v>104</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>67</v>
+        <v>105</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>68</v>
+        <v>106</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="G20" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="H20" s="0" t="n">
-        <v>0</v>
+        <v>106</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="H20" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="I20" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="J20" s="4" t="n">
+        <v>2122679655</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1225,22 +1869,31 @@
         <v>20</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>66</v>
+        <v>104</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>70</v>
+        <v>111</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>71</v>
+        <v>112</v>
       </c>
       <c r="F21" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="G21" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="H21" s="0" t="n">
-        <v>0</v>
+      <c r="G21" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="H21" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="I21" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="J21" s="4" t="n">
+        <v>2122670404</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1252,22 +1905,31 @@
         <v>21</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>66</v>
+        <v>104</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="E22" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="F22" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="G22" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="H22" s="0" t="n">
-        <v>0</v>
+        <v>115</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H22" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="I22" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="J22" s="4" t="n">
+        <v>4142798721</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1279,22 +1941,31 @@
         <v>22</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>66</v>
+        <v>104</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>76</v>
+        <v>121</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>77</v>
+        <v>122</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="G23" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="H23" s="0" t="n">
-        <v>0</v>
+        <v>123</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H23" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="I23" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="J23" s="4" t="n">
+        <v>2122665698</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1306,22 +1977,28 @@
         <v>23</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>66</v>
+        <v>104</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>80</v>
+        <v>128</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>81</v>
+        <v>129</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="G24" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="H24" s="0" t="n">
-        <v>0</v>
+        <v>129</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="I24" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="J24" s="4" t="n">
+        <v>2122656578</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1333,22 +2010,28 @@
         <v>24</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>66</v>
+        <v>104</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>83</v>
+        <v>133</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>84</v>
+        <v>134</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="G25" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="H25" s="0" t="n">
-        <v>0</v>
+        <v>123</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="I25" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="J25" s="4" t="n">
+        <v>2122656578</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1360,22 +2043,31 @@
         <v>25</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>66</v>
+        <v>104</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>86</v>
+        <v>136</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>87</v>
+        <v>137</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="G26" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="H26" s="0" t="n">
-        <v>0</v>
+        <v>137</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="H26" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="I26" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="J26" s="4" t="n">
+        <v>2122651264</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1387,22 +2079,28 @@
         <v>26</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>89</v>
+        <v>142</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>90</v>
+        <v>143</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>91</v>
+        <v>144</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="G27" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="H27" s="0" t="n">
-        <v>0</v>
+        <v>123</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="I27" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="J27" s="4" t="n">
+        <v>2122670679</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1414,22 +2112,31 @@
         <v>27</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>89</v>
+        <v>142</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>93</v>
+        <v>148</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>94</v>
+        <v>149</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="G28" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="H28" s="0" t="n">
-        <v>0</v>
+        <v>123</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="H28" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="I28" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="J28" s="4" t="n">
+        <v>4162181189</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1441,22 +2148,28 @@
         <v>28</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>89</v>
+        <v>142</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>96</v>
+        <v>154</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F29" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="G29" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="H29" s="0" t="n">
-        <v>0</v>
+      <c r="G29" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="I29" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J29" s="4" t="n">
+        <v>2122611222</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1468,22 +2181,28 @@
         <v>29</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>89</v>
+        <v>142</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>98</v>
+        <v>156</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F30" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="G30" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="H30" s="0" t="n">
-        <v>0</v>
+      <c r="G30" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="I30" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J30" s="4" t="n">
+        <v>2122611222</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1495,22 +2214,31 @@
         <v>30</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>89</v>
+        <v>142</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>100</v>
+        <v>158</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>87</v>
+        <v>137</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="G31" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="H31" s="0" t="n">
-        <v>0</v>
+        <v>137</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="H31" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="I31" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="J31" s="4" t="n">
+        <v>2122651264</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1522,22 +2250,31 @@
         <v>31</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>89</v>
+        <v>142</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>102</v>
+        <v>163</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>87</v>
+        <v>137</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="G32" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="H32" s="0" t="n">
-        <v>0</v>
+        <v>137</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="H32" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="I32" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="J32" s="4" t="n">
+        <v>2122651264</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1549,22 +2286,31 @@
         <v>32</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>89</v>
+        <v>142</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>104</v>
+        <v>166</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>105</v>
+        <v>167</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="G33" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="H33" s="0" t="n">
-        <v>0</v>
+        <v>167</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H33" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="I33" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="J33" s="4" t="n">
+        <v>2122646060</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1576,22 +2322,31 @@
         <v>33</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>89</v>
+        <v>142</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>106</v>
+        <v>171</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>107</v>
+        <v>172</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="G34" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="H34" s="0" t="n">
-        <v>0</v>
+        <v>123</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="H34" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="I34" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="J34" s="4" t="n">
+        <v>4241638009</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1603,22 +2358,31 @@
         <v>34</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>89</v>
+        <v>142</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>109</v>
+        <v>177</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>110</v>
+        <v>178</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="G35" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="H35" s="0" t="n">
-        <v>0</v>
+        <v>179</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="H35" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="I35" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="J35" s="4" t="n">
+        <v>2122614977</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1630,22 +2394,31 @@
         <v>35</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>89</v>
+        <v>142</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="E36" s="0" t="s">
-        <v>113</v>
+        <v>183</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>60</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="G36" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="H36" s="0" t="n">
-        <v>0</v>
+        <v>184</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="H36" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="I36" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="J36" s="4" t="n">
+        <v>2122654243</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1657,22 +2430,28 @@
         <v>36</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>89</v>
+        <v>142</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>116</v>
+        <v>187</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>77</v>
+        <v>122</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="G37" s="0" t="s">
-        <v>117</v>
-      </c>
-      <c r="H37" s="0" t="n">
-        <v>0</v>
+        <v>184</v>
+      </c>
+      <c r="G37" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="I37" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="J37" s="4" t="n">
+        <v>2122665698</v>
+      </c>
+      <c r="K37" s="3" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1684,22 +2463,31 @@
         <v>37</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>89</v>
+        <v>142</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>118</v>
+        <v>188</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>119</v>
+        <v>189</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="G38" s="0" t="s">
-        <v>120</v>
-      </c>
-      <c r="H38" s="0" t="n">
+        <v>184</v>
+      </c>
+      <c r="G38" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="H38" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="I38" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="J38" s="4" t="n">
         <v>0</v>
+      </c>
+      <c r="K38" s="3" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1711,22 +2499,28 @@
         <v>38</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>121</v>
+        <v>193</v>
       </c>
       <c r="D39" s="0" t="n">
         <v>201</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>122</v>
+        <v>194</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="G39" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="H39" s="0" t="n">
-        <v>0</v>
+        <v>194</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="I39" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="J39" s="4" t="n">
+        <v>4160138740</v>
+      </c>
+      <c r="K39" s="3" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1738,22 +2532,28 @@
         <v>39</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>121</v>
+        <v>193</v>
       </c>
       <c r="D40" s="0" t="n">
         <v>202</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>124</v>
+        <v>198</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="G40" s="0" t="s">
-        <v>126</v>
-      </c>
-      <c r="H40" s="0" t="n">
-        <v>0</v>
+        <v>199</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="I40" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="J40" s="4" t="n">
+        <v>2122650456</v>
+      </c>
+      <c r="K40" s="3" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1765,22 +2565,31 @@
         <v>40</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>121</v>
+        <v>193</v>
       </c>
       <c r="D41" s="0" t="n">
         <v>203</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>127</v>
+        <v>203</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="G41" s="0" t="s">
-        <v>126</v>
-      </c>
-      <c r="H41" s="0" t="n">
-        <v>0</v>
+        <v>203</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="H41" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="I41" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="J41" s="4" t="n">
+        <v>4122031156</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1792,22 +2601,28 @@
         <v>41</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="D42" s="0" t="n">
-        <v>204241</v>
+        <v>193</v>
+      </c>
+      <c r="D42" s="0" t="s">
+        <v>207</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>128</v>
+        <v>208</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="G42" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="H42" s="0" t="n">
-        <v>0</v>
+        <v>123</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="I42" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="J42" s="4" t="n">
+        <v>2122658413</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1819,22 +2634,28 @@
         <v>42</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>121</v>
+        <v>193</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>130</v>
+        <v>212</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>131</v>
+        <v>213</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="G43" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="H43" s="0" t="n">
-        <v>0</v>
+        <v>213</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="I43" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="J43" s="4" t="n">
+        <v>2122652270</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1846,22 +2667,28 @@
         <v>43</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>121</v>
+        <v>193</v>
       </c>
       <c r="D44" s="0" t="n">
         <v>207</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>133</v>
+        <v>217</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="G44" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="H44" s="0" t="n">
-        <v>0</v>
+        <v>217</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="I44" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="J44" s="4" t="n">
+        <v>2122630639</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1873,22 +2700,28 @@
         <v>44</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>121</v>
+        <v>193</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>134</v>
+        <v>220</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>133</v>
+        <v>217</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="G45" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="H45" s="0" t="n">
-        <v>0</v>
+        <v>217</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="I45" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="J45" s="4" t="n">
+        <v>2122630639</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1900,22 +2733,28 @@
         <v>45</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>121</v>
+        <v>193</v>
       </c>
       <c r="D46" s="0" t="n">
         <v>211</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>133</v>
+        <v>217</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="G46" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="H46" s="0" t="n">
-        <v>0</v>
+        <v>217</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="I46" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="J46" s="4" t="n">
+        <v>2122630639</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1927,22 +2766,31 @@
         <v>46</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>121</v>
+        <v>193</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>136</v>
+        <v>222</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>137</v>
+        <v>223</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>137</v>
-      </c>
-      <c r="G47" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="H47" s="0" t="n">
-        <v>0</v>
+        <v>223</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="H47" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="I47" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="J47" s="4" t="n">
+        <v>2122658026</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1954,22 +2802,31 @@
         <v>47</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>121</v>
+        <v>193</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>139</v>
+        <v>228</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="F48" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="G48" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="H48" s="0" t="n">
-        <v>0</v>
+        <v>229</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="H48" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="I48" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="J48" s="4" t="n">
+        <v>2122641131</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1981,22 +2838,31 @@
         <v>48</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>142</v>
+        <v>234</v>
       </c>
       <c r="D49" s="0" t="n">
         <v>301</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>143</v>
+        <v>235</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="G49" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="H49" s="0" t="n">
-        <v>0</v>
+        <v>123</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="H49" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="I49" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="J49" s="4" t="n">
+        <v>2122668701</v>
+      </c>
+      <c r="K49" s="3" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2008,22 +2874,28 @@
         <v>49</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>142</v>
+        <v>234</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>145</v>
+        <v>240</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>146</v>
+        <v>241</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="G50" s="0" t="s">
-        <v>147</v>
-      </c>
-      <c r="H50" s="0" t="n">
-        <v>0</v>
+        <v>123</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="I50" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="J50" s="4" t="n">
+        <v>2122665356</v>
+      </c>
+      <c r="K50" s="3" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2035,22 +2907,31 @@
         <v>50</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>142</v>
+        <v>234</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>148</v>
+        <v>245</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>149</v>
+        <v>246</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="G51" s="0" t="s">
-        <v>150</v>
-      </c>
-      <c r="H51" s="0" t="n">
-        <v>0</v>
+        <v>123</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="H51" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="I51" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="J51" s="4" t="n">
+        <v>2122658556</v>
+      </c>
+      <c r="K51" s="3" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2062,22 +2943,28 @@
         <v>51</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>142</v>
+        <v>234</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>152</v>
+        <v>252</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>152</v>
-      </c>
-      <c r="G52" s="0" t="s">
-        <v>153</v>
-      </c>
-      <c r="H52" s="0" t="n">
-        <v>0</v>
+        <v>252</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="I52" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="J52" s="4" t="n">
+        <v>2122622077</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2089,22 +2976,28 @@
         <v>52</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>142</v>
+        <v>234</v>
       </c>
       <c r="D53" s="0" t="n">
         <v>307</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>154</v>
+        <v>256</v>
       </c>
       <c r="F53" s="0" t="s">
-        <v>154</v>
-      </c>
-      <c r="G53" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="H53" s="0" t="n">
-        <v>0</v>
+        <v>256</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="I53" s="0" t="s">
+        <v>257</v>
+      </c>
+      <c r="J53" s="4" t="n">
+        <v>2122658163</v>
+      </c>
+      <c r="K53" s="3" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2116,22 +3009,28 @@
         <v>53</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>142</v>
+        <v>234</v>
       </c>
       <c r="D54" s="0" t="n">
         <v>308</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="F54" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="G54" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="H54" s="0" t="n">
-        <v>0</v>
+        <v>259</v>
+      </c>
+      <c r="F54" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="I54" s="0" t="s">
+        <v>257</v>
+      </c>
+      <c r="J54" s="4" t="n">
+        <v>2122658163</v>
+      </c>
+      <c r="K54" s="3" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2143,22 +3042,28 @@
         <v>54</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>142</v>
+        <v>234</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>156</v>
+        <v>260</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>157</v>
+        <v>261</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>157</v>
-      </c>
-      <c r="G55" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="H55" s="0" t="n">
+        <v>261</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="I55" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="J55" s="4" t="n">
         <v>0</v>
+      </c>
+      <c r="K55" s="3" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2170,22 +3075,31 @@
         <v>55</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>142</v>
+        <v>234</v>
       </c>
       <c r="D56" s="0" t="n">
         <v>311</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>158</v>
+        <v>264</v>
       </c>
       <c r="F56" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="G56" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="H56" s="0" t="n">
-        <v>0</v>
+        <v>264</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="H56" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="I56" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="J56" s="4" t="n">
+        <v>4122031156</v>
+      </c>
+      <c r="K56" s="3" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2197,22 +3111,31 @@
         <v>56</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>142</v>
+        <v>234</v>
       </c>
       <c r="D57" s="0" t="n">
         <v>321</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>159</v>
+        <v>266</v>
       </c>
       <c r="F57" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="G57" s="0" t="s">
-        <v>160</v>
-      </c>
-      <c r="H57" s="0" t="n">
-        <v>0</v>
+        <v>123</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="H57" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="I57" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="J57" s="4" t="n">
+        <v>2122654361</v>
+      </c>
+      <c r="K57" s="3" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2224,22 +3147,31 @@
         <v>57</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>142</v>
+        <v>234</v>
       </c>
       <c r="D58" s="0" t="n">
         <v>331</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>161</v>
+        <v>271</v>
       </c>
       <c r="F58" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="G58" s="0" t="s">
-        <v>162</v>
-      </c>
-      <c r="H58" s="0" t="n">
-        <v>0</v>
+        <v>123</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="H58" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="I58" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="J58" s="4" t="n">
+        <v>2122647372</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2251,22 +3183,31 @@
         <v>58</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>163</v>
+        <v>276</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>164</v>
-      </c>
-      <c r="E59" s="0" t="s">
-        <v>165</v>
+        <v>277</v>
+      </c>
+      <c r="E59" s="8" t="s">
+        <v>278</v>
       </c>
       <c r="F59" s="0" t="s">
-        <v>166</v>
-      </c>
-      <c r="G59" s="0" t="s">
-        <v>167</v>
-      </c>
-      <c r="H59" s="0" t="n">
-        <v>0</v>
+        <v>279</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="H59" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="I59" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="J59" s="4" t="n">
+        <v>2122633667</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2278,22 +3219,28 @@
         <v>59</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>163</v>
+        <v>276</v>
       </c>
       <c r="D60" s="0" t="n">
         <v>407</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>168</v>
+        <v>284</v>
       </c>
       <c r="F60" s="0" t="s">
-        <v>168</v>
-      </c>
-      <c r="G60" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="H60" s="0" t="n">
-        <v>0</v>
+        <v>284</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="I60" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="J60" s="4" t="n">
+        <v>2122652566</v>
+      </c>
+      <c r="K60" s="3" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2305,22 +3252,31 @@
         <v>60</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>163</v>
+        <v>276</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>169</v>
+        <v>287</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>140</v>
+        <v>229</v>
       </c>
       <c r="F61" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="G61" s="0" t="s">
-        <v>170</v>
-      </c>
-      <c r="H61" s="0" t="n">
-        <v>0</v>
+        <v>123</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="H61" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="I61" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="J61" s="4" t="n">
+        <v>2122641131</v>
+      </c>
+      <c r="K61" s="3" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2332,25 +3288,94 @@
         <v>61</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>163</v>
+        <v>276</v>
       </c>
       <c r="D62" s="0" t="n">
         <v>411</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>171</v>
+        <v>290</v>
       </c>
       <c r="F62" s="0" t="s">
-        <v>171</v>
-      </c>
-      <c r="G62" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="H62" s="0" t="n">
+        <v>290</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="I62" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="J62" s="4" t="n">
         <v>0</v>
       </c>
+      <c r="K62" s="3" t="s">
+        <v>263</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="K2" r:id="rId1" display="librerianuevachacao@gmail.com,joserosalesnuevachacao@gmail.com"/>
+    <hyperlink ref="K3" r:id="rId2" display="fvallejo@centralarm.com"/>
+    <hyperlink ref="K4" r:id="rId3" display="librerianuevachacao@gmail.com,joserosalesnuevachacao@gmail.com"/>
+    <hyperlink ref="K5" r:id="rId4" display="bello1099@gmail.com"/>
+    <hyperlink ref="K6" r:id="rId5" display="mariaperez_21@hotmail.es"/>
+    <hyperlink ref="K7" r:id="rId6" display="mariaperez_21@hotmail.es"/>
+    <hyperlink ref="K8" r:id="rId7" display="dblolita1945@hotmail.com"/>
+    <hyperlink ref="K9" r:id="rId8" display="juliocperaza45@hotmail.com"/>
+    <hyperlink ref="K10" r:id="rId9" display="regalosmerali@hotmail.com"/>
+    <hyperlink ref="K11" r:id="rId10" display="frutaselalmendronenchacao@gmail.com"/>
+    <hyperlink ref="K12" r:id="rId11" display="otrasopciones73@gmail.com,raskael@hotmail.com"/>
+    <hyperlink ref="K13" r:id="rId12" display="salonesalfredoalvarado@gmail.com,mechyestilo94@gmail.com"/>
+    <hyperlink ref="K14" r:id="rId13" display="kellymer181@hotmail.com"/>
+    <hyperlink ref="K15" r:id="rId14" display="skamarquez@gmail.com"/>
+    <hyperlink ref="K16" r:id="rId15" display="regalosmerali@hotmail.com"/>
+    <hyperlink ref="K17" r:id="rId16" display="bello1099@gmail.com"/>
+    <hyperlink ref="K18" r:id="rId17" display="admgaleriasmiranda@gmail.com"/>
+    <hyperlink ref="K19" r:id="rId18" display="arlindompolicarp@hotmail.com"/>
+    <hyperlink ref="K20" r:id="rId19" display="aledaligp@gmail.com,omarpalma17@gmail.com"/>
+    <hyperlink ref="K21" r:id="rId20" display="admgaleriasmiranda@gmail.com"/>
+    <hyperlink ref="K22" r:id="rId21" display="manolet.1964@gmail.com,taiccs.cdiaz@gmail.com"/>
+    <hyperlink ref="K23" r:id="rId22" display="sifonts@gmail.com"/>
+    <hyperlink ref="K24" r:id="rId23" display="adrianads2008@gmail.com"/>
+    <hyperlink ref="K25" r:id="rId24" display="adrianads2008@gmail.com"/>
+    <hyperlink ref="K26" r:id="rId25" display="marianafernandez1@gmail.com,deiby.pena@scottasesores.com"/>
+    <hyperlink ref="K27" r:id="rId26" display="anjijoselin12@gmail.com,anji.joselin26@gmail.com"/>
+    <hyperlink ref="K28" r:id="rId27" display="cecilia.rengifo.51@gmail.com"/>
+    <hyperlink ref="K29" r:id="rId28" display="fvallejo@centralarm.com"/>
+    <hyperlink ref="K30" r:id="rId29" display="fvallejo@centralarm.com"/>
+    <hyperlink ref="K31" r:id="rId30" display="deiby.pena@scottasesores.com"/>
+    <hyperlink ref="K32" r:id="rId31" display="deiby.pena@scottasesores.com"/>
+    <hyperlink ref="K33" r:id="rId32" display="lrpm56@gmail.com"/>
+    <hyperlink ref="K34" r:id="rId33" display="dsoria11@hotmail.com,inversionestransan156@gmail.com"/>
+    <hyperlink ref="K35" r:id="rId34" display="1asesordeviajes@gmail.com,kacikiaretours.ventas@gmail.com"/>
+    <hyperlink ref="K36" r:id="rId35" display="frutaselalmendronenchacao@gmail.com"/>
+    <hyperlink ref="K37" r:id="rId36" display="sifonts@gmail.com"/>
+    <hyperlink ref="K38" r:id="rId37" display="noviellivito@hotmail.com,anafeng30@yahoo.com"/>
+    <hyperlink ref="K39" r:id="rId38" display="florcoromotosegovia@gmail.com,segoviaperla@gmail.com"/>
+    <hyperlink ref="K40" r:id="rId39" display="fernando.mazabuel@gmail.com,valeria.medinam@gmail.com"/>
+    <hyperlink ref="K41" r:id="rId40" display="virginia.mazzei@gmail.com"/>
+    <hyperlink ref="K42" r:id="rId41" display="dinosusi@hotmail.com"/>
+    <hyperlink ref="K43" r:id="rId42" display="otrasopciones73@gmail.com"/>
+    <hyperlink ref="K44" r:id="rId43" display="cruzsanabria56@gmail.com,mecinca2.0@gmail.com"/>
+    <hyperlink ref="K45" r:id="rId44" display="cruzsanabria56@gmail.com,mecinca2.0@gmail.com"/>
+    <hyperlink ref="K46" r:id="rId45" display="cruzsanabria56@gmail.com,mecinca2.0@gmail.com"/>
+    <hyperlink ref="K47" r:id="rId46" display="maestre.david@gmail.com,agatarq79@gmail.com"/>
+    <hyperlink ref="K48" r:id="rId47" display="marianita1002@hotmail.com"/>
+    <hyperlink ref="K49" r:id="rId48" display="ceaprofint@gmail.com,addabaez1302@yahoo.com"/>
+    <hyperlink ref="K50" r:id="rId49" display="jacqueline.jpp@gmail.com"/>
+    <hyperlink ref="K51" r:id="rId50" display="miriamulloa@outlook.com"/>
+    <hyperlink ref="K52" r:id="rId51" display="mdgsconstrucciones@hotmail.com"/>
+    <hyperlink ref="K53" r:id="rId52" display="serviciostecnicosreampa@hotmail.com"/>
+    <hyperlink ref="K54" r:id="rId53" display="serviciostecnicosreampa@hotmail.com"/>
+    <hyperlink ref="K55" r:id="rId54" display="danferconstrucciones@gmail.com"/>
+    <hyperlink ref="K56" r:id="rId55" display="virginia.mazzei@gmail.com"/>
+    <hyperlink ref="K57" r:id="rId56" display="solcojsc1978@gmail.com"/>
+    <hyperlink ref="K58" r:id="rId57" display="erioscontadores@hotmail.com"/>
+    <hyperlink ref="K59" r:id="rId58" display="LILIANA_TAPIAS@hotmail.com"/>
+    <hyperlink ref="K60" r:id="rId59" display="eloisagutierrez@hotmail.com"/>
+    <hyperlink ref="K61" r:id="rId60" display="marianita1002@hotmail.com"/>
+    <hyperlink ref="K62" r:id="rId61" display="danferconstrucciones@gmail.com"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/xls/locales.xlsx
+++ b/xls/locales.xlsx
@@ -1140,8 +1140,8 @@
   </sheetPr>
   <dimension ref="A1:K62"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O18" activeCellId="0" sqref="O18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F34" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H64" activeCellId="0" sqref="H64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1149,7 +1149,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="23.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="23.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="47.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="46.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="8.56"/>
@@ -1256,6 +1256,9 @@
       <c r="G3" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="H3" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="I3" s="0" t="s">
         <v>22</v>
       </c>
@@ -1361,6 +1364,9 @@
       <c r="G6" s="2" t="s">
         <v>35</v>
       </c>
+      <c r="H6" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="I6" s="0" t="s">
         <v>36</v>
       </c>
@@ -1394,6 +1400,9 @@
       <c r="G7" s="2" t="s">
         <v>39</v>
       </c>
+      <c r="H7" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="I7" s="0" t="s">
         <v>36</v>
       </c>
@@ -1463,6 +1472,9 @@
       <c r="G9" s="2" t="s">
         <v>49</v>
       </c>
+      <c r="H9" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="I9" s="0" t="s">
         <v>50</v>
       </c>
@@ -1568,6 +1580,9 @@
       <c r="G12" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="H12" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="I12" s="0" t="s">
         <v>67</v>
       </c>
@@ -1781,6 +1796,9 @@
       <c r="G18" s="2" t="s">
         <v>96</v>
       </c>
+      <c r="H18" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="I18" s="0" t="s">
         <v>97</v>
       </c>
@@ -1814,6 +1832,9 @@
       <c r="G19" s="2" t="s">
         <v>101</v>
       </c>
+      <c r="H19" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="I19" s="0" t="s">
         <v>102</v>
       </c>
@@ -1991,6 +2012,9 @@
       <c r="G24" s="2" t="s">
         <v>130</v>
       </c>
+      <c r="H24" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="I24" s="0" t="s">
         <v>131</v>
       </c>
@@ -2024,6 +2048,9 @@
       <c r="G25" s="2" t="s">
         <v>135</v>
       </c>
+      <c r="H25" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="I25" s="0" t="s">
         <v>131</v>
       </c>
@@ -2093,6 +2120,9 @@
       <c r="G27" s="2" t="s">
         <v>145</v>
       </c>
+      <c r="H27" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="I27" s="0" t="s">
         <v>146</v>
       </c>
@@ -2162,6 +2192,9 @@
       <c r="G29" s="2" t="s">
         <v>155</v>
       </c>
+      <c r="H29" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="I29" s="0" t="s">
         <v>22</v>
       </c>
@@ -2195,6 +2228,9 @@
       <c r="G30" s="2" t="s">
         <v>157</v>
       </c>
+      <c r="H30" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="I30" s="0" t="s">
         <v>22</v>
       </c>
@@ -2444,6 +2480,9 @@
       <c r="G37" s="9" t="s">
         <v>185</v>
       </c>
+      <c r="H37" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="I37" s="0" t="s">
         <v>126</v>
       </c>
@@ -2513,6 +2552,9 @@
       <c r="G39" s="2" t="s">
         <v>195</v>
       </c>
+      <c r="H39" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="I39" s="0" t="s">
         <v>196</v>
       </c>
@@ -2546,6 +2588,9 @@
       <c r="G40" s="2" t="s">
         <v>200</v>
       </c>
+      <c r="H40" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="I40" s="0" t="s">
         <v>201</v>
       </c>
@@ -2615,6 +2660,9 @@
       <c r="G42" s="2" t="s">
         <v>209</v>
       </c>
+      <c r="H42" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="I42" s="0" t="s">
         <v>210</v>
       </c>
@@ -2648,6 +2696,9 @@
       <c r="G43" s="2" t="s">
         <v>214</v>
       </c>
+      <c r="H43" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="I43" s="0" t="s">
         <v>215</v>
       </c>
@@ -2681,6 +2732,9 @@
       <c r="G44" s="2" t="s">
         <v>124</v>
       </c>
+      <c r="H44" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="I44" s="0" t="s">
         <v>218</v>
       </c>
@@ -2714,6 +2768,9 @@
       <c r="G45" s="2" t="s">
         <v>221</v>
       </c>
+      <c r="H45" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="I45" s="0" t="s">
         <v>218</v>
       </c>
@@ -2747,6 +2804,9 @@
       <c r="G46" s="2" t="s">
         <v>138</v>
       </c>
+      <c r="H46" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="I46" s="0" t="s">
         <v>218</v>
       </c>
@@ -2888,6 +2948,9 @@
       <c r="G50" s="2" t="s">
         <v>242</v>
       </c>
+      <c r="H50" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="I50" s="0" t="s">
         <v>243</v>
       </c>
@@ -2957,6 +3020,9 @@
       <c r="G52" s="2" t="s">
         <v>253</v>
       </c>
+      <c r="H52" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="I52" s="0" t="s">
         <v>254</v>
       </c>
@@ -2990,6 +3056,9 @@
       <c r="G53" s="2" t="s">
         <v>124</v>
       </c>
+      <c r="H53" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="I53" s="0" t="s">
         <v>257</v>
       </c>
@@ -3023,6 +3092,9 @@
       <c r="G54" s="2" t="s">
         <v>130</v>
       </c>
+      <c r="H54" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="I54" s="0" t="s">
         <v>257</v>
       </c>
@@ -3056,6 +3128,9 @@
       <c r="G55" s="2" t="s">
         <v>173</v>
       </c>
+      <c r="H55" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="I55" s="0" t="s">
         <v>262</v>
       </c>
@@ -3233,6 +3308,9 @@
       <c r="G60" s="2" t="s">
         <v>150</v>
       </c>
+      <c r="H60" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="I60" s="0" t="s">
         <v>285</v>
       </c>
@@ -3301,6 +3379,9 @@
       </c>
       <c r="G62" s="2" t="s">
         <v>124</v>
+      </c>
+      <c r="H62" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="I62" s="0" t="s">
         <v>291</v>
